--- a/Docs/Pasta2.xlsx
+++ b/Docs/Pasta2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_santos31\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_santos31\Documents\F1 novo\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Class Obj</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>inicialização</t>
+  </si>
+  <si>
+    <t>F1Main.js (front)</t>
+  </si>
+  <si>
+    <t>Style.css (front)</t>
+  </si>
+  <si>
+    <t>F1Class.js (front)</t>
+  </si>
+  <si>
+    <t>Index.html (front)</t>
   </si>
 </sst>
 </file>
@@ -462,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E29"/>
+  <dimension ref="B3:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,23 +716,55 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
